--- a/data/vgp_database/Sierra_de_Las_Cruces.xlsx
+++ b/data/vgp_database/Sierra_de_Las_Cruces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A5A70-D995-5643-BFF2-C7242F49CB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80081109-826C-2540-A863-8F55BF4FC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="1060" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="105">
   <si>
     <t>Name:</t>
   </si>
@@ -351,93 +351,6 @@
   </si>
   <si>
     <t>10.1016/S0040-1951(99)00312-1</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-2</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-3</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-4</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-5</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-6</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-7</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-8</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-9</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-10</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-11</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-12</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-13</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-14</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-15</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-16</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-17</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-18</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-19</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-20</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-21</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-22</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-23</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-24</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-25</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-26</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-27</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-28</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-29</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00312-30</t>
   </si>
 </sst>
 </file>
@@ -865,7 +778,7 @@
   <dimension ref="A1:AQ815"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+      <selection activeCell="AP10" sqref="AP10:AP38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1687,8 +1600,9 @@
       <c r="AM10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP10" s="36" t="s">
-        <v>105</v>
+      <c r="AP10" s="36" t="str">
+        <f>AP9</f>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1789,8 +1703,9 @@
       <c r="AM11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP11" s="36" t="s">
-        <v>106</v>
+      <c r="AP11" s="36" t="str">
+        <f t="shared" ref="AP11:AP38" si="0">AP10</f>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1887,8 +1802,9 @@
       <c r="AM12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP12" s="36" t="s">
-        <v>107</v>
+      <c r="AP12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1987,8 +1903,9 @@
       <c r="AM13" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP13" s="36" t="s">
-        <v>108</v>
+      <c r="AP13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2089,8 +2006,9 @@
       <c r="AM14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP14" s="36" t="s">
-        <v>109</v>
+      <c r="AP14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2189,8 +2107,9 @@
       <c r="AM15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP15" s="36" t="s">
-        <v>110</v>
+      <c r="AP15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2291,8 +2210,9 @@
       <c r="AM16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP16" s="36" t="s">
-        <v>111</v>
+      <c r="AP16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2393,8 +2313,9 @@
       <c r="AM17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP17" s="36" t="s">
-        <v>112</v>
+      <c r="AP17" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2495,8 +2416,9 @@
       <c r="AM18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP18" s="36" t="s">
-        <v>113</v>
+      <c r="AP18" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2597,8 +2519,9 @@
       <c r="AM19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP19" s="36" t="s">
-        <v>114</v>
+      <c r="AP19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2699,8 +2622,9 @@
       <c r="AM20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP20" s="36" t="s">
-        <v>115</v>
+      <c r="AP20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2803,8 +2727,9 @@
       <c r="AM21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP21" s="36" t="s">
-        <v>116</v>
+      <c r="AP21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2907,8 +2832,9 @@
       <c r="AM22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP22" s="36" t="s">
-        <v>117</v>
+      <c r="AP22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3009,8 +2935,9 @@
       <c r="AM23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP23" s="36" t="s">
-        <v>118</v>
+      <c r="AP23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3109,8 +3036,9 @@
       <c r="AM24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP24" s="36" t="s">
-        <v>119</v>
+      <c r="AP24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3213,8 +3141,9 @@
       <c r="AM25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AP25" s="36" t="s">
-        <v>120</v>
+      <c r="AP25" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,8 +3246,9 @@
       </c>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="36" t="s">
-        <v>121</v>
+      <c r="AP26" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ26" s="19"/>
     </row>
@@ -3422,8 +3352,9 @@
       </c>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="36" t="s">
-        <v>122</v>
+      <c r="AP27" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ27" s="19"/>
     </row>
@@ -3525,8 +3456,9 @@
       </c>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="36" t="s">
-        <v>123</v>
+      <c r="AP28" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ28" s="19"/>
     </row>
@@ -3630,8 +3562,9 @@
       </c>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
-      <c r="AP29" s="36" t="s">
-        <v>124</v>
+      <c r="AP29" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ29" s="19"/>
     </row>
@@ -3733,8 +3666,9 @@
       </c>
       <c r="AN30" s="19"/>
       <c r="AO30" s="19"/>
-      <c r="AP30" s="36" t="s">
-        <v>125</v>
+      <c r="AP30" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ30" s="19"/>
     </row>
@@ -3838,8 +3772,9 @@
       </c>
       <c r="AN31" s="19"/>
       <c r="AO31" s="19"/>
-      <c r="AP31" s="36" t="s">
-        <v>126</v>
+      <c r="AP31" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ31" s="19"/>
     </row>
@@ -3943,8 +3878,9 @@
       </c>
       <c r="AN32" s="19"/>
       <c r="AO32" s="19"/>
-      <c r="AP32" s="36" t="s">
-        <v>127</v>
+      <c r="AP32" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ32" s="19"/>
     </row>
@@ -4048,8 +3984,9 @@
       </c>
       <c r="AN33" s="19"/>
       <c r="AO33" s="19"/>
-      <c r="AP33" s="36" t="s">
-        <v>128</v>
+      <c r="AP33" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ33" s="19"/>
     </row>
@@ -4153,8 +4090,9 @@
       </c>
       <c r="AN34" s="19"/>
       <c r="AO34" s="19"/>
-      <c r="AP34" s="36" t="s">
-        <v>129</v>
+      <c r="AP34" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ34" s="19"/>
     </row>
@@ -4256,8 +4194,9 @@
       </c>
       <c r="AN35" s="19"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="36" t="s">
-        <v>130</v>
+      <c r="AP35" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ35" s="19"/>
     </row>
@@ -4359,8 +4298,9 @@
       </c>
       <c r="AN36" s="19"/>
       <c r="AO36" s="19"/>
-      <c r="AP36" s="36" t="s">
-        <v>131</v>
+      <c r="AP36" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ36" s="19"/>
     </row>
@@ -4464,8 +4404,9 @@
       </c>
       <c r="AN37" s="19"/>
       <c r="AO37" s="19"/>
-      <c r="AP37" s="36" t="s">
-        <v>132</v>
+      <c r="AP37" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ37" s="19"/>
     </row>
@@ -4567,8 +4508,9 @@
       </c>
       <c r="AN38" s="19"/>
       <c r="AO38" s="19"/>
-      <c r="AP38" s="36" t="s">
-        <v>133</v>
+      <c r="AP38" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00312-1</v>
       </c>
       <c r="AQ38" s="19"/>
     </row>
@@ -38696,7 +38638,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(99)00312-1" xr:uid="{2F3E3CD4-8968-FD4D-84D7-A93E7DD17DD8}"/>
-    <hyperlink ref="AP10:AP38" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(99)00312-1" xr:uid="{05B6DB09-C0DF-BD44-B064-DD144DDC44DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
